--- a/va_facility_data_2025-02-20/Colmery-O'Neil Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''Colmery-O%27Neil%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Colmery-O'Neil Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''Colmery-O%27Neil%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R6ea7af7791c84de492d1534c12788ae4"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Re5685abe6fa04da7ae69863e49b39fbe"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R02becddf36914edd9096ba1d65613bd5"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rde57e8494a0d467990388cc354120153"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R5fe772287fb648ec96e24263a922af7f"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R197e0876a6074d08abaa719b880d3495"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R0ef5b594ac4542b1a8f51cefdfac8de6"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rd9b67192b0e44160b700e58de4118df1"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R701235459e334e5fbf6828d76cea3b0b"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rc1633214a65d4aac8a6912661fae9885"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R7498783ad79344f0ae1a02cc5c40583e"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R3e9aead895d245c391124baf1de3aa4b"/>
   </x:sheets>
 </x:workbook>
 </file>
